--- a/C# Patrones de Diseño/Metsker/Patrones de Diseño (Referencia Rápida).xlsx
+++ b/C# Patrones de Diseño/Metsker/Patrones de Diseño (Referencia Rápida).xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="18915" windowHeight="8520" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="18915" windowHeight="8520"/>
   </bookViews>
   <sheets>
     <sheet name="Tabla Completa" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
   </sheets>
   <calcPr calcId="145621"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -420,7 +420,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="69">
+  <dxfs count="19">
     <dxf>
       <alignment vertical="center" readingOrder="0"/>
     </dxf>
@@ -458,163 +458,13 @@
       <alignment wrapText="1" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -917,7 +767,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="DinámicaGoF" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="4" minRefreshableVersion="3" showDrill="0" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="DinámicaGoF" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="4" minRefreshableVersion="3" showDrill="0" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="A3:E26" firstHeaderRow="1" firstDataRow="1" firstDataCol="5"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -1161,42 +1011,14 @@
     <i/>
   </colItems>
   <formats count="12">
-    <format dxfId="61">
+    <format dxfId="11">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="60">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="53">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="1" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="52">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="2" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="51">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="50">
+    <format dxfId="10">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4" count="0"/>
@@ -1204,18 +1026,46 @@
       </pivotArea>
     </format>
     <format dxfId="9">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="8">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="7">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="6">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="5">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="8">
+    <format dxfId="4">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="6">
+    <format dxfId="3">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
     </format>
-    <format dxfId="4">
+    <format dxfId="2">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="3"/>
     </format>
-    <format dxfId="2">
+    <format dxfId="1">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="4"/>
     </format>
     <format dxfId="0">
@@ -1236,14 +1086,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TablaGPT" displayName="TablaGPT" ref="B3:F26" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TablaGPT" displayName="TablaGPT" ref="B3:F26" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
   <autoFilter ref="B3:F26"/>
+  <sortState ref="B4:F26">
+    <sortCondition ref="B4"/>
+  </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" name="Categoría Metsker" dataDxfId="68"/>
-    <tableColumn id="2" name="Categoría GoF" dataDxfId="67"/>
-    <tableColumn id="3" name="Patrón de Diseño" dataDxfId="66"/>
-    <tableColumn id="4" name="Escenario Común" dataDxfId="65"/>
-    <tableColumn id="5" name="Descripción Breve" dataDxfId="64"/>
+    <tableColumn id="1" name="Categoría Metsker" dataDxfId="16"/>
+    <tableColumn id="2" name="Categoría GoF" dataDxfId="15"/>
+    <tableColumn id="3" name="Patrón de Diseño" dataDxfId="14"/>
+    <tableColumn id="4" name="Escenario Común" dataDxfId="13"/>
+    <tableColumn id="5" name="Descripción Breve" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1538,12 +1391,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
@@ -1640,92 +1494,92 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>80</v>
       </c>
@@ -1733,64 +1587,64 @@
         <v>2</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="60" x14ac:dyDescent="0.25">
@@ -1801,16 +1655,16 @@
         <v>3</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>81</v>
       </c>
@@ -1818,149 +1672,149 @@
         <v>3</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1975,8 +1829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
